--- a/test/test_kernels/results.xlsx
+++ b/test/test_kernels/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/C/EcoSLIM_test/EcoSLIM4_2/test/test_kernels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B05ADE-90BA-7A4D-A78C-489092A0A1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AC34E4-DD15-FD43-98BC-6BDBF45652AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29840" yWindow="480" windowWidth="33700" windowHeight="19820" activeTab="1" xr2:uid="{B2B8C22B-AE74-594C-9218-72B24B23E00D}"/>
+    <workbookView xWindow="32040" yWindow="920" windowWidth="33700" windowHeight="19220" activeTab="2" xr2:uid="{B2B8C22B-AE74-594C-9218-72B24B23E00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="14">
   <si>
     <t>Time</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>unpack_recv</t>
+  </si>
+  <si>
+    <t>select2send</t>
   </si>
 </sst>
 </file>
@@ -2950,6 +2953,1995 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>prepare_neighbor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$N$2:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>625000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>312500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19531</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1.6423700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87631999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76351999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9352999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4121000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9459999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0129999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9039999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9010000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9140000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5839999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6859999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6859999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6859999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5839999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5839999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.891E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5839999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2323-0543-92F7-46A8ACF436A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>thrustscan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$N$2:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>625000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>312500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19531</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1.1315200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73421000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54374</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45773000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34304000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98816000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95333999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95845999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8369999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7340000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9940000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4819999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0720000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0720000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1739999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1739999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0720000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7650000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8670000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8670000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8670000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7650000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8670000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2323-0543-92F7-46A8ACF436A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>prepare_holes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$N$2:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>625000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>312500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19531</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$H$2:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1.1790099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75836999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55373000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45395000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28783999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1940200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1899500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6690000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.403E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4159999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.122E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3459999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.317E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3970000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3679999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2720000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0180000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2139999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1790000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.2139999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2079999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2299999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2323-0543-92F7-46A8ACF436A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="915687807"/>
+        <c:axId val="915689439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="915687807"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="915689439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="915689439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="915687807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>select2send</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$N$2:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>625000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>312500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19531</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$K$2:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>14.40461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3799700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8666200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1032999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.16838</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.50528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73626000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16486000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10854</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9629999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8369999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2460000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7340000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6320000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9389999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8369999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0420000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6320000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6320000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4269999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.3249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.3249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8129999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.9149999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9149999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7136-4D4D-9A8B-F27AD3A490A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>compaction_inplace</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$N$2:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>625000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>312500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19531</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$J$2:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>30.488579999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.481859999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9523799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1492500000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1575700000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6680999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.37626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18124999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10546999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8610000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8129999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8129999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9149999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8129999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0180000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8129999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5060000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.403E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.1980000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0960000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0960000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0960000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9940000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0960000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0960000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7136-4D4D-9A8B-F27AD3A490A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>select2exit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$N$2:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>625000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>312500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19531</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$I$2:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>13.838340000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0819799999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7150699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.03674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.12947</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4633</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2564500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16384000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0660000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6320000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2220000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0180000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0180000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0180000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2220000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8129999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8129999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6080000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.403E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.403E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.403E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1980000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.301E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.301E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1980000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7136-4D4D-9A8B-F27AD3A490A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>unpack_receive</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$N$2:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>625000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>312500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19531</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$M$2:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>11.169790000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1470700000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6863999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9005399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.00966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81408000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89293</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43213000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8850000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5839999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4819999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6859999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3790000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3790000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4819999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2770000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3790000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3790000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3790000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2770000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1739999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2770000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1739999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1739999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.2770000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.2770000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7136-4D4D-9A8B-F27AD3A490A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="983263247"/>
+        <c:axId val="983306255"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="983263247"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983306255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="983306255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983263247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3110,6 +5102,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4659,6 +6731,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5320,6 +8424,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6C2233-F734-F240-936E-695C1AD1F65E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B92220-EB46-834B-B9F9-07A31A707196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6669,7 +9850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A758B42A-D20B-104E-97B3-F4D3FE708347}">
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D28"/>
     </sheetView>
   </sheetViews>
@@ -10524,11 +13705,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB625C0-2DB6-6944-83DC-2F981B5FAFF8}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D1" s="2" t="s">
@@ -10550,7 +13746,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
@@ -10573,34 +13769,34 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1.6197999999999999</v>
+        <v>1.6423700000000001</v>
       </c>
       <c r="E2">
-        <v>1.10199</v>
+        <v>1.1315200000000001</v>
       </c>
       <c r="F2">
-        <v>2.4299999999999999E-2</v>
+        <v>2.3740000000000001E-2</v>
       </c>
       <c r="G2">
-        <v>0.27982000000000001</v>
+        <v>0.35859000000000002</v>
       </c>
       <c r="H2">
-        <v>1.16082</v>
+        <v>1.1790099999999999</v>
       </c>
       <c r="I2">
-        <v>13.83656</v>
+        <v>13.838340000000001</v>
       </c>
       <c r="J2">
-        <v>30.49708</v>
+        <v>30.488579999999999</v>
       </c>
       <c r="K2">
-        <v>14.44035</v>
+        <v>14.40461</v>
       </c>
       <c r="L2">
-        <v>0.22777</v>
+        <v>0.22835</v>
       </c>
       <c r="M2">
-        <v>11.17276</v>
+        <v>11.169790000000001</v>
       </c>
       <c r="N2">
         <v>80000000</v>
@@ -10620,34 +13816,34 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1.1897</v>
+        <v>1.2457</v>
       </c>
       <c r="E3">
-        <v>0.78981999999999997</v>
+        <v>0.73421000000000003</v>
       </c>
       <c r="F3">
-        <v>2.555E-2</v>
+        <v>2.3230000000000001E-2</v>
       </c>
       <c r="G3">
-        <v>0.21745999999999999</v>
+        <v>0.21062</v>
       </c>
       <c r="H3">
-        <v>0.81642000000000003</v>
+        <v>0.75836999999999999</v>
       </c>
       <c r="I3">
-        <v>7.5200300000000002</v>
+        <v>7.0819799999999997</v>
       </c>
       <c r="J3">
-        <v>17.001349999999999</v>
+        <v>15.481859999999999</v>
       </c>
       <c r="K3">
-        <v>7.8532200000000003</v>
+        <v>7.3799700000000001</v>
       </c>
       <c r="L3">
-        <v>0.17105999999999999</v>
+        <v>0.16589000000000001</v>
       </c>
       <c r="M3">
-        <v>6.5366299999999997</v>
+        <v>6.1470700000000003</v>
       </c>
       <c r="N3">
         <v>40000000</v>
@@ -10667,34 +13863,34 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0.85331999999999997</v>
+        <v>0.87631999999999999</v>
       </c>
       <c r="E4">
-        <v>0.57972999999999997</v>
+        <v>0.54374</v>
       </c>
       <c r="F4">
-        <v>2.1659999999999999E-2</v>
+        <v>2.138E-2</v>
       </c>
       <c r="G4">
-        <v>0.20430999999999999</v>
+        <v>0.16938</v>
       </c>
       <c r="H4">
-        <v>0.58884999999999998</v>
+        <v>0.55373000000000006</v>
       </c>
       <c r="I4">
-        <v>3.9725000000000001</v>
+        <v>3.7150699999999999</v>
       </c>
       <c r="J4">
-        <v>8.5099099999999996</v>
+        <v>7.9523799999999998</v>
       </c>
       <c r="K4">
-        <v>4.13164</v>
+        <v>3.8666200000000002</v>
       </c>
       <c r="L4">
-        <v>0.15043000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="M4">
-        <v>3.90449</v>
+        <v>3.6863999999999999</v>
       </c>
       <c r="N4">
         <v>20000000</v>
@@ -10714,34 +13910,34 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.73441000000000001</v>
+        <v>0.76351999999999998</v>
       </c>
       <c r="E5">
-        <v>0.47248000000000001</v>
+        <v>0.45773000000000003</v>
       </c>
       <c r="F5">
-        <v>2.06E-2</v>
+        <v>2.1569999999999999E-2</v>
       </c>
       <c r="G5">
-        <v>0.14859</v>
+        <v>0.13952000000000001</v>
       </c>
       <c r="H5">
-        <v>0.47377999999999998</v>
+        <v>0.45395000000000002</v>
       </c>
       <c r="I5">
-        <v>2.1656399999999998</v>
+        <v>2.03674</v>
       </c>
       <c r="J5">
-        <v>4.4372800000000003</v>
+        <v>4.1492500000000003</v>
       </c>
       <c r="K5">
-        <v>2.2480799999999999</v>
+        <v>2.1032999999999999</v>
       </c>
       <c r="L5">
-        <v>0.11755</v>
+        <v>0.10957</v>
       </c>
       <c r="M5">
-        <v>2.0349900000000001</v>
+        <v>1.9005399999999999</v>
       </c>
       <c r="N5">
         <v>10000000</v>
@@ -10761,34 +13957,34 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>4.0738899999999996</v>
+        <v>3.9352999999999998</v>
       </c>
       <c r="E6">
-        <v>0.36738999999999999</v>
+        <v>0.34304000000000001</v>
       </c>
       <c r="F6">
-        <v>1.9689999999999999E-2</v>
+        <v>1.8849999999999999E-2</v>
       </c>
       <c r="G6">
-        <v>0.14424999999999999</v>
+        <v>0.13292999999999999</v>
       </c>
       <c r="H6">
-        <v>0.36875999999999998</v>
+        <v>0.28783999999999998</v>
       </c>
       <c r="I6">
-        <v>1.21241</v>
+        <v>1.12947</v>
       </c>
       <c r="J6">
-        <v>2.3684500000000002</v>
+        <v>2.1575700000000002</v>
       </c>
       <c r="K6">
-        <v>1.2508600000000001</v>
+        <v>1.16838</v>
       </c>
       <c r="L6">
-        <v>0.10697</v>
+        <v>9.9330000000000002E-2</v>
       </c>
       <c r="M6">
-        <v>1.08531</v>
+        <v>1.00966</v>
       </c>
       <c r="N6">
         <v>5000000</v>
@@ -10808,34 +14004,34 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>3.5494599999999998</v>
+        <v>3.4121000000000001</v>
       </c>
       <c r="E7">
-        <v>0.98662000000000005</v>
+        <v>0.98816000000000004</v>
       </c>
       <c r="F7">
-        <v>1.9740000000000001E-2</v>
+        <v>2.0449999999999999E-2</v>
       </c>
       <c r="G7">
-        <v>0.86058999999999997</v>
+        <v>0.83699000000000001</v>
       </c>
       <c r="H7">
-        <v>1.2072700000000001</v>
+        <v>1.1940200000000001</v>
       </c>
       <c r="I7">
-        <v>1.50518</v>
+        <v>1.4633</v>
       </c>
       <c r="J7">
-        <v>1.70591</v>
+        <v>1.6680999999999999</v>
       </c>
       <c r="K7">
-        <v>1.5831599999999999</v>
+        <v>1.50528</v>
       </c>
       <c r="L7">
-        <v>0.10351</v>
+        <v>9.8299999999999998E-2</v>
       </c>
       <c r="M7">
-        <v>0.86565000000000003</v>
+        <v>0.81408000000000003</v>
       </c>
       <c r="N7">
         <v>2500000</v>
@@ -10855,34 +14051,34 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>0.56464000000000003</v>
+        <v>0.24160000000000001</v>
       </c>
       <c r="E8">
-        <v>1.0046999999999999</v>
+        <v>0.95333999999999997</v>
       </c>
       <c r="F8">
-        <v>1.9939999999999999E-2</v>
+        <v>1.882E-2</v>
       </c>
       <c r="G8">
-        <v>0.90132999999999996</v>
+        <v>0.88483000000000001</v>
       </c>
       <c r="H8">
-        <v>1.45099</v>
+        <v>1.1899500000000001</v>
       </c>
       <c r="I8">
-        <v>1.30406</v>
+        <v>1.2564500000000001</v>
       </c>
       <c r="J8">
-        <v>1.4179600000000001</v>
+        <v>1.37626</v>
       </c>
       <c r="K8">
-        <v>0.79625999999999997</v>
+        <v>0.73626000000000003</v>
       </c>
       <c r="L8">
-        <v>0.10059</v>
+        <v>9.4210000000000002E-2</v>
       </c>
       <c r="M8">
-        <v>0.92120000000000002</v>
+        <v>0.89293</v>
       </c>
       <c r="N8">
         <v>1250000</v>
@@ -10902,34 +14098,34 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>0.25062000000000001</v>
+        <v>0.22950000000000001</v>
       </c>
       <c r="E9">
-        <v>0.99505999999999994</v>
+        <v>0.95845999999999998</v>
       </c>
       <c r="F9">
-        <v>1.9009999999999999E-2</v>
+        <v>1.8180000000000002E-2</v>
       </c>
       <c r="G9">
-        <v>0.91739000000000004</v>
+        <v>0.89241999999999999</v>
       </c>
       <c r="H9">
-        <v>9.5350000000000004E-2</v>
+        <v>4.6690000000000002E-2</v>
       </c>
       <c r="I9">
-        <v>0.19888</v>
+        <v>0.16384000000000001</v>
       </c>
       <c r="J9">
-        <v>0.36884</v>
+        <v>0.31949</v>
       </c>
       <c r="K9">
-        <v>0.19284000000000001</v>
+        <v>0.16486000000000001</v>
       </c>
       <c r="L9">
-        <v>0.11008999999999999</v>
+        <v>0.10752</v>
       </c>
       <c r="M9">
-        <v>0.46518999999999999</v>
+        <v>0.43213000000000001</v>
       </c>
       <c r="N9">
         <v>625000</v>
@@ -10949,34 +14145,34 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>7.6509999999999995E-2</v>
+        <v>5.9459999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>8.9039999999999994E-2</v>
+        <v>5.8369999999999998E-2</v>
       </c>
       <c r="F10">
-        <v>1.9730000000000001E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="G10">
-        <v>3.8059999999999997E-2</v>
+        <v>7.8100000000000001E-3</v>
       </c>
       <c r="H10">
-        <v>4.5990000000000003E-2</v>
+        <v>4.403E-2</v>
       </c>
       <c r="I10">
-        <v>0.10654</v>
+        <v>9.8299999999999998E-2</v>
       </c>
       <c r="J10">
-        <v>0.19411999999999999</v>
+        <v>0.18124999999999999</v>
       </c>
       <c r="K10">
-        <v>0.11572</v>
+        <v>0.10854</v>
       </c>
       <c r="L10">
-        <v>1.3809999999999999E-2</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="M10">
-        <v>9.6439999999999998E-2</v>
+        <v>7.8850000000000003E-2</v>
       </c>
       <c r="N10">
         <v>312500</v>
@@ -10996,34 +14192,34 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>6.7460000000000006E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="E11">
-        <v>5.4949999999999999E-2</v>
+        <v>5.7340000000000002E-2</v>
       </c>
       <c r="F11">
-        <v>1.916E-2</v>
+        <v>1.6930000000000001E-2</v>
       </c>
       <c r="G11">
-        <v>8.2199999999999999E-3</v>
+        <v>6.43E-3</v>
       </c>
       <c r="H11">
-        <v>4.3099999999999999E-2</v>
+        <v>4.4159999999999998E-2</v>
       </c>
       <c r="I11">
-        <v>7.5329999999999994E-2</v>
+        <v>7.0660000000000001E-2</v>
       </c>
       <c r="J11">
-        <v>0.1142</v>
+        <v>0.10546999999999999</v>
       </c>
       <c r="K11">
-        <v>7.6420000000000002E-2</v>
+        <v>6.9629999999999997E-2</v>
       </c>
       <c r="L11">
-        <v>1.06E-2</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="M11">
-        <v>5.6390000000000003E-2</v>
+        <v>5.3249999999999999E-2</v>
       </c>
       <c r="N11">
         <v>156250</v>
@@ -11043,34 +14239,34 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>5.7950000000000002E-2</v>
+        <v>5.04E-2</v>
       </c>
       <c r="E12">
-        <v>4.3029999999999999E-2</v>
+        <v>3.9940000000000003E-2</v>
       </c>
       <c r="F12">
-        <v>1.7989999999999999E-2</v>
+        <v>1.7149999999999999E-2</v>
       </c>
       <c r="G12">
-        <v>5.7299999999999999E-3</v>
+        <v>5.5399999999999998E-3</v>
       </c>
       <c r="H12">
-        <v>4.2389999999999997E-2</v>
+        <v>4.122E-2</v>
       </c>
       <c r="I12">
-        <v>6.0299999999999999E-2</v>
+        <v>5.6320000000000002E-2</v>
       </c>
       <c r="J12">
-        <v>7.0910000000000001E-2</v>
+        <v>6.8610000000000004E-2</v>
       </c>
       <c r="K12">
-        <v>6.0639999999999999E-2</v>
+        <v>5.8369999999999998E-2</v>
       </c>
       <c r="L12">
-        <v>1.0460000000000001E-2</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="M12">
-        <v>3.8440000000000002E-2</v>
+        <v>3.5839999999999997E-2</v>
       </c>
       <c r="N12">
         <v>78125</v>
@@ -11090,34 +14286,34 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>4.5370000000000001E-2</v>
+        <v>4.5249999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>3.4950000000000002E-2</v>
+        <v>3.4819999999999997E-2</v>
       </c>
       <c r="F13">
-        <v>1.6590000000000001E-2</v>
+        <v>1.584E-2</v>
       </c>
       <c r="G13">
-        <v>5.2399999999999999E-3</v>
+        <v>5.1500000000000001E-3</v>
       </c>
       <c r="H13">
-        <v>4.4769999999999997E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="I13">
-        <v>5.5019999999999999E-2</v>
+        <v>5.2220000000000003E-2</v>
       </c>
       <c r="J13">
-        <v>5.5480000000000002E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="K13">
-        <v>5.9880000000000003E-2</v>
+        <v>6.2460000000000002E-2</v>
       </c>
       <c r="L13">
-        <v>1.1169999999999999E-2</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="M13">
-        <v>3.7330000000000002E-2</v>
+        <v>3.4819999999999997E-2</v>
       </c>
       <c r="N13">
         <v>39062</v>
@@ -11137,34 +14333,34 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>4.215E-2</v>
+        <v>4.0129999999999999E-2</v>
       </c>
       <c r="E14">
-        <v>3.1269999999999999E-2</v>
+        <v>3.0720000000000001E-2</v>
       </c>
       <c r="F14">
-        <v>1.5259999999999999E-2</v>
+        <v>1.421E-2</v>
       </c>
       <c r="G14">
-        <v>5.2599999999999999E-3</v>
+        <v>5.4400000000000004E-3</v>
       </c>
       <c r="H14">
-        <v>4.4380000000000003E-2</v>
+        <v>4.3459999999999999E-2</v>
       </c>
       <c r="I14">
-        <v>5.2449999999999997E-2</v>
+        <v>5.0180000000000002E-2</v>
       </c>
       <c r="J14">
-        <v>5.0930000000000003E-2</v>
+        <v>4.8129999999999999E-2</v>
       </c>
       <c r="K14">
-        <v>5.9540000000000003E-2</v>
+        <v>5.7340000000000002E-2</v>
       </c>
       <c r="L14">
-        <v>1.133E-2</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="M14">
-        <v>3.5650000000000001E-2</v>
+        <v>3.6859999999999997E-2</v>
       </c>
       <c r="N14">
         <v>19531</v>
@@ -11184,34 +14380,34 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>4.0930000000000001E-2</v>
+        <v>4.0099999999999997E-2</v>
       </c>
       <c r="E15">
-        <v>3.1489999999999997E-2</v>
+        <v>3.0720000000000001E-2</v>
       </c>
       <c r="F15">
-        <v>1.5299999999999999E-2</v>
+        <v>1.4590000000000001E-2</v>
       </c>
       <c r="G15">
-        <v>5.1500000000000001E-3</v>
+        <v>5.1799999999999997E-3</v>
       </c>
       <c r="H15">
-        <v>4.4580000000000002E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="I15">
-        <v>5.151E-2</v>
+        <v>5.0180000000000002E-2</v>
       </c>
       <c r="J15">
-        <v>5.0540000000000002E-2</v>
+        <v>4.8129999999999999E-2</v>
       </c>
       <c r="K15">
-        <v>5.8479999999999997E-2</v>
+        <v>5.6320000000000002E-2</v>
       </c>
       <c r="L15">
-        <v>1.1129999999999999E-2</v>
+        <v>1.1259999999999999E-2</v>
       </c>
       <c r="M15">
-        <v>3.5009999999999999E-2</v>
+        <v>3.3790000000000001E-2</v>
       </c>
       <c r="N15">
         <v>9765</v>
@@ -11231,34 +14427,34 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>4.054E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="E16">
-        <v>3.109E-2</v>
+        <v>3.1739999999999997E-2</v>
       </c>
       <c r="F16">
-        <v>1.5049999999999999E-2</v>
+        <v>1.443E-2</v>
       </c>
       <c r="G16">
-        <v>4.9500000000000004E-3</v>
+        <v>5.3400000000000001E-3</v>
       </c>
       <c r="H16">
-        <v>4.4290000000000003E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="I16">
-        <v>5.1069999999999997E-2</v>
+        <v>5.0180000000000002E-2</v>
       </c>
       <c r="J16">
-        <v>5.0290000000000001E-2</v>
+        <v>4.9149999999999999E-2</v>
       </c>
       <c r="K16">
-        <v>6.4519999999999994E-2</v>
+        <v>5.9389999999999998E-2</v>
       </c>
       <c r="L16">
-        <v>1.129E-2</v>
+        <v>1.1259999999999999E-2</v>
       </c>
       <c r="M16">
-        <v>3.5060000000000001E-2</v>
+        <v>3.3790000000000001E-2</v>
       </c>
       <c r="N16">
         <v>4882</v>
@@ -11278,34 +14474,34 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>4.0710000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E17">
-        <v>3.1719999999999998E-2</v>
+        <v>3.1739999999999997E-2</v>
       </c>
       <c r="F17">
-        <v>1.5180000000000001E-2</v>
+        <v>1.4370000000000001E-2</v>
       </c>
       <c r="G17">
-        <v>5.2100000000000002E-3</v>
+        <v>5.3800000000000002E-3</v>
       </c>
       <c r="H17">
-        <v>4.478E-2</v>
+        <v>4.317E-2</v>
       </c>
       <c r="I17">
-        <v>5.0990000000000001E-2</v>
+        <v>5.2220000000000003E-2</v>
       </c>
       <c r="J17">
-        <v>4.9979999999999997E-2</v>
+        <v>4.8129999999999999E-2</v>
       </c>
       <c r="K17">
-        <v>5.8439999999999999E-2</v>
+        <v>5.8369999999999998E-2</v>
       </c>
       <c r="L17">
-        <v>1.15E-2</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="M17">
-        <v>3.5299999999999998E-2</v>
+        <v>3.4819999999999997E-2</v>
       </c>
       <c r="N17">
         <v>2441</v>
@@ -11325,34 +14521,34 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>4.0340000000000001E-2</v>
+        <v>3.9039999999999998E-2</v>
       </c>
       <c r="E18">
-        <v>3.092E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="F18">
-        <v>1.499E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="G18">
-        <v>5.1799999999999997E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="H18">
-        <v>4.4220000000000002E-2</v>
+        <v>4.3970000000000002E-2</v>
       </c>
       <c r="I18">
-        <v>5.0340000000000003E-2</v>
+        <v>4.8129999999999999E-2</v>
       </c>
       <c r="J18">
-        <v>4.9790000000000001E-2</v>
+        <v>5.0180000000000002E-2</v>
       </c>
       <c r="K18">
-        <v>5.6770000000000001E-2</v>
+        <v>6.0420000000000001E-2</v>
       </c>
       <c r="L18">
-        <v>1.1169999999999999E-2</v>
+        <v>1.1259999999999999E-2</v>
       </c>
       <c r="M18">
-        <v>3.4930000000000003E-2</v>
+        <v>3.2770000000000001E-2</v>
       </c>
       <c r="N18">
         <v>1220</v>
@@ -11372,34 +14568,34 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>4.0140000000000002E-2</v>
+        <v>3.9010000000000003E-2</v>
       </c>
       <c r="E19">
-        <v>3.0519999999999999E-2</v>
+        <v>3.0720000000000001E-2</v>
       </c>
       <c r="F19">
-        <v>1.5169999999999999E-2</v>
+        <v>1.5259999999999999E-2</v>
       </c>
       <c r="G19">
-        <v>5.1000000000000004E-3</v>
+        <v>4.6699999999999997E-3</v>
       </c>
       <c r="H19">
-        <v>4.3990000000000001E-2</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="I19">
-        <v>4.9329999999999999E-2</v>
+        <v>4.8129999999999999E-2</v>
       </c>
       <c r="J19">
-        <v>5.0270000000000002E-2</v>
+        <v>4.8129999999999999E-2</v>
       </c>
       <c r="K19">
-        <v>5.7259999999999998E-2</v>
+        <v>5.6320000000000002E-2</v>
       </c>
       <c r="L19">
-        <v>1.1089999999999999E-2</v>
+        <v>1.1259999999999999E-2</v>
       </c>
       <c r="M19">
-        <v>3.4619999999999998E-2</v>
+        <v>3.3790000000000001E-2</v>
       </c>
       <c r="N19">
         <v>610</v>
@@ -11419,34 +14615,34 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>3.9919999999999997E-2</v>
+        <v>3.9140000000000001E-2</v>
       </c>
       <c r="E20">
-        <v>3.0200000000000001E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="F20">
-        <v>1.521E-2</v>
+        <v>1.469E-2</v>
       </c>
       <c r="G20">
-        <v>4.7699999999999999E-3</v>
+        <v>5.4099999999999999E-3</v>
       </c>
       <c r="H20">
-        <v>4.3720000000000002E-2</v>
+        <v>4.3679999999999997E-2</v>
       </c>
       <c r="I20">
-        <v>4.9669999999999999E-2</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="J20">
-        <v>4.6940000000000003E-2</v>
+        <v>4.5060000000000003E-2</v>
       </c>
       <c r="K20">
-        <v>5.6860000000000001E-2</v>
+        <v>5.6320000000000002E-2</v>
       </c>
       <c r="L20">
-        <v>1.116E-2</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="M20">
-        <v>3.4430000000000002E-2</v>
+        <v>3.3790000000000001E-2</v>
       </c>
       <c r="N20">
         <v>305</v>
@@ -11466,34 +14662,34 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>3.703E-2</v>
+        <v>3.5839999999999997E-2</v>
       </c>
       <c r="E21">
-        <v>2.9680000000000002E-2</v>
+        <v>2.7650000000000001E-2</v>
       </c>
       <c r="F21">
-        <v>1.5599999999999999E-2</v>
+        <v>1.536E-2</v>
       </c>
       <c r="G21">
-        <v>4.8799999999999998E-3</v>
+        <v>5.0899999999999999E-3</v>
       </c>
       <c r="H21">
-        <v>4.351E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="I21">
-        <v>4.6030000000000001E-2</v>
+        <v>4.6080000000000003E-2</v>
       </c>
       <c r="J21">
-        <v>4.4850000000000001E-2</v>
+        <v>4.403E-2</v>
       </c>
       <c r="K21">
-        <v>5.552E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="L21">
-        <v>1.1259999999999999E-2</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="M21">
-        <v>3.3709999999999997E-2</v>
+        <v>3.3790000000000001E-2</v>
       </c>
       <c r="N21">
         <v>152</v>
@@ -11513,34 +14709,34 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>3.7999999999999999E-2</v>
+        <v>3.6859999999999997E-2</v>
       </c>
       <c r="E22">
-        <v>3.014E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="F22">
-        <v>2.2370000000000001E-2</v>
+        <v>1.485E-2</v>
       </c>
       <c r="G22">
-        <v>5.0899999999999999E-3</v>
+        <v>5.3400000000000001E-3</v>
       </c>
       <c r="H22">
-        <v>4.3270000000000003E-2</v>
+        <v>4.2720000000000001E-2</v>
       </c>
       <c r="I22">
-        <v>4.4850000000000001E-2</v>
+        <v>4.403E-2</v>
       </c>
       <c r="J22">
-        <v>4.3380000000000002E-2</v>
+        <v>4.1980000000000003E-2</v>
       </c>
       <c r="K22">
-        <v>5.5169999999999997E-2</v>
+        <v>5.4269999999999999E-2</v>
       </c>
       <c r="L22">
-        <v>1.089E-2</v>
+        <v>1.1259999999999999E-2</v>
       </c>
       <c r="M22">
-        <v>3.3279999999999997E-2</v>
+        <v>3.2770000000000001E-2</v>
       </c>
       <c r="N22">
         <v>76</v>
@@ -11560,34 +14756,34 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>3.7409999999999999E-2</v>
+        <v>3.6859999999999997E-2</v>
       </c>
       <c r="E23">
-        <v>3.0630000000000001E-2</v>
+        <v>2.8670000000000001E-2</v>
       </c>
       <c r="F23">
-        <v>1.576E-2</v>
+        <v>1.3950000000000001E-2</v>
       </c>
       <c r="G23">
-        <v>4.79E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="H23">
-        <v>4.3920000000000001E-2</v>
+        <v>5.0180000000000002E-2</v>
       </c>
       <c r="I23">
-        <v>4.573E-2</v>
+        <v>4.403E-2</v>
       </c>
       <c r="J23">
-        <v>4.299E-2</v>
+        <v>4.0960000000000003E-2</v>
       </c>
       <c r="K23">
-        <v>5.5669999999999997E-2</v>
+        <v>5.3249999999999999E-2</v>
       </c>
       <c r="L23">
-        <v>1.1050000000000001E-2</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="M23">
-        <v>3.3910000000000003E-2</v>
+        <v>3.1739999999999997E-2</v>
       </c>
       <c r="N23">
         <v>38</v>
@@ -11607,34 +14803,34 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>3.832E-2</v>
+        <v>3.6859999999999997E-2</v>
       </c>
       <c r="E24">
-        <v>3.0439999999999998E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="F24">
-        <v>1.5879999999999998E-2</v>
+        <v>1.5520000000000001E-2</v>
       </c>
       <c r="G24">
-        <v>4.8700000000000002E-3</v>
+        <v>4.7400000000000003E-3</v>
       </c>
       <c r="H24">
-        <v>4.4269999999999997E-2</v>
+        <v>4.2139999999999997E-2</v>
       </c>
       <c r="I24">
-        <v>4.5589999999999999E-2</v>
+        <v>4.403E-2</v>
       </c>
       <c r="J24">
-        <v>4.2389999999999997E-2</v>
+        <v>4.0960000000000003E-2</v>
       </c>
       <c r="K24">
-        <v>5.5849999999999997E-2</v>
+        <v>5.3249999999999999E-2</v>
       </c>
       <c r="L24">
-        <v>1.102E-2</v>
+        <v>1.1259999999999999E-2</v>
       </c>
       <c r="M24">
-        <v>3.3590000000000002E-2</v>
+        <v>3.2770000000000001E-2</v>
       </c>
       <c r="N24">
         <v>19</v>
@@ -11654,34 +14850,34 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>3.7319999999999999E-2</v>
+        <v>3.5839999999999997E-2</v>
       </c>
       <c r="E25">
-        <v>3.006E-2</v>
+        <v>2.8670000000000001E-2</v>
       </c>
       <c r="F25">
-        <v>1.5640000000000001E-2</v>
+        <v>1.482E-2</v>
       </c>
       <c r="G25">
-        <v>4.8500000000000001E-3</v>
+        <v>5.1200000000000004E-3</v>
       </c>
       <c r="H25">
-        <v>4.3499999999999997E-2</v>
+        <v>4.1790000000000001E-2</v>
       </c>
       <c r="I25">
-        <v>4.548E-2</v>
+        <v>4.1980000000000003E-2</v>
       </c>
       <c r="J25">
-        <v>4.2299999999999997E-2</v>
+        <v>4.0960000000000003E-2</v>
       </c>
       <c r="K25">
-        <v>5.5280000000000003E-2</v>
+        <v>5.3249999999999999E-2</v>
       </c>
       <c r="L25">
-        <v>1.095E-2</v>
+        <v>1.1259999999999999E-2</v>
       </c>
       <c r="M25">
-        <v>3.3750000000000002E-2</v>
+        <v>3.1739999999999997E-2</v>
       </c>
       <c r="N25">
         <v>9</v>
@@ -11701,34 +14897,34 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>3.746E-2</v>
+        <v>3.5839999999999997E-2</v>
       </c>
       <c r="E26">
-        <v>2.9610000000000001E-2</v>
+        <v>2.8670000000000001E-2</v>
       </c>
       <c r="F26">
-        <v>1.5599999999999999E-2</v>
+        <v>1.5169999999999999E-2</v>
       </c>
       <c r="G26">
-        <v>4.7099999999999998E-3</v>
+        <v>5.0899999999999999E-3</v>
       </c>
       <c r="H26">
-        <v>4.403E-2</v>
+        <v>4.2139999999999997E-2</v>
       </c>
       <c r="I26">
-        <v>4.5100000000000001E-2</v>
+        <v>4.301E-2</v>
       </c>
       <c r="J26">
-        <v>4.24E-2</v>
+        <v>3.9940000000000003E-2</v>
       </c>
       <c r="K26">
-        <v>5.144E-2</v>
+        <v>4.8129999999999999E-2</v>
       </c>
       <c r="L26">
-        <v>1.1010000000000001E-2</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="M26">
-        <v>3.3590000000000002E-2</v>
+        <v>3.1739999999999997E-2</v>
       </c>
       <c r="N26">
         <v>4</v>
@@ -11748,34 +14944,34 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>3.6990000000000002E-2</v>
+        <v>3.891E-2</v>
       </c>
       <c r="E27">
-        <v>2.9929999999999998E-2</v>
+        <v>2.7650000000000001E-2</v>
       </c>
       <c r="F27">
-        <v>1.558E-2</v>
+        <v>1.453E-2</v>
       </c>
       <c r="G27">
-        <v>4.7600000000000003E-3</v>
+        <v>4.96E-3</v>
       </c>
       <c r="H27">
-        <v>4.394E-2</v>
+        <v>4.2079999999999999E-2</v>
       </c>
       <c r="I27">
-        <v>4.4310000000000002E-2</v>
+        <v>4.301E-2</v>
       </c>
       <c r="J27">
-        <v>4.2130000000000001E-2</v>
+        <v>4.0960000000000003E-2</v>
       </c>
       <c r="K27">
-        <v>5.0700000000000002E-2</v>
+        <v>4.9149999999999999E-2</v>
       </c>
       <c r="L27">
-        <v>1.098E-2</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="M27">
-        <v>3.3140000000000003E-2</v>
+        <v>3.2770000000000001E-2</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -11795,34 +14991,34 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>3.7409999999999999E-2</v>
+        <v>3.5839999999999997E-2</v>
       </c>
       <c r="E28">
-        <v>2.9909999999999999E-2</v>
+        <v>2.8670000000000001E-2</v>
       </c>
       <c r="F28">
-        <v>1.5429999999999999E-2</v>
+        <v>1.5520000000000001E-2</v>
       </c>
       <c r="G28">
-        <v>4.7200000000000002E-3</v>
+        <v>5.1500000000000001E-3</v>
       </c>
       <c r="H28">
-        <v>4.403E-2</v>
+        <v>4.2299999999999997E-2</v>
       </c>
       <c r="I28">
-        <v>5.015E-2</v>
+        <v>4.1980000000000003E-2</v>
       </c>
       <c r="J28">
-        <v>4.2299999999999997E-2</v>
+        <v>4.0960000000000003E-2</v>
       </c>
       <c r="K28">
-        <v>5.0709999999999998E-2</v>
+        <v>4.9149999999999999E-2</v>
       </c>
       <c r="L28">
-        <v>1.125E-2</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="M28">
-        <v>3.329E-2</v>
+        <v>3.2770000000000001E-2</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -11833,1319 +15029,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F4DD80-F019-BF42-A71F-956DD07BABE8}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="D1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O28"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1.5330600000000001</v>
-      </c>
-      <c r="E2">
-        <v>1.1137699999999999</v>
-      </c>
-      <c r="F2">
-        <v>2.2550000000000001E-2</v>
-      </c>
-      <c r="G2">
-        <v>0.25463999999999998</v>
-      </c>
-      <c r="H2">
-        <v>1.1475599999999999</v>
-      </c>
-      <c r="I2">
-        <v>13.83018</v>
-      </c>
-      <c r="J2">
-        <v>30.471270000000001</v>
-      </c>
-      <c r="K2">
-        <v>14.470549999999999</v>
-      </c>
-      <c r="L2">
-        <v>0.21643999999999999</v>
-      </c>
-      <c r="M2">
-        <v>11.16112</v>
-      </c>
-      <c r="N2">
-        <v>80000000</v>
-      </c>
-      <c r="O2">
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1.11381</v>
-      </c>
-      <c r="E3">
-        <v>0.77576999999999996</v>
-      </c>
-      <c r="F3">
-        <v>2.2679999999999999E-2</v>
-      </c>
-      <c r="G3">
-        <v>0.20959</v>
-      </c>
-      <c r="H3">
-        <v>0.80135999999999996</v>
-      </c>
-      <c r="I3">
-        <v>7.5141499999999999</v>
-      </c>
-      <c r="J3">
-        <v>17.04391</v>
-      </c>
-      <c r="K3">
-        <v>7.8440200000000004</v>
-      </c>
-      <c r="L3">
-        <v>0.16753999999999999</v>
-      </c>
-      <c r="M3">
-        <v>6.5370999999999997</v>
-      </c>
-      <c r="N3">
-        <v>40000000</v>
-      </c>
-      <c r="O3">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0.84819</v>
-      </c>
-      <c r="E4">
-        <v>0.56359999999999999</v>
-      </c>
-      <c r="F4">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="G4">
-        <v>0.18293000000000001</v>
-      </c>
-      <c r="H4">
-        <v>0.57786999999999999</v>
-      </c>
-      <c r="I4">
-        <v>3.99831</v>
-      </c>
-      <c r="J4">
-        <v>8.5219500000000004</v>
-      </c>
-      <c r="K4">
-        <v>4.1243400000000001</v>
-      </c>
-      <c r="L4">
-        <v>0.13406000000000001</v>
-      </c>
-      <c r="M4">
-        <v>3.8948800000000001</v>
-      </c>
-      <c r="N4">
-        <v>20000000</v>
-      </c>
-      <c r="O4">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0.73587000000000002</v>
-      </c>
-      <c r="E5">
-        <v>0.45839000000000002</v>
-      </c>
-      <c r="F5">
-        <v>1.9720000000000001E-2</v>
-      </c>
-      <c r="G5">
-        <v>0.14635999999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.4748</v>
-      </c>
-      <c r="I5">
-        <v>2.1625399999999999</v>
-      </c>
-      <c r="J5">
-        <v>4.4346399999999999</v>
-      </c>
-      <c r="K5">
-        <v>2.2435399999999999</v>
-      </c>
-      <c r="L5">
-        <v>0.11287999999999999</v>
-      </c>
-      <c r="M5">
-        <v>2.0329299999999999</v>
-      </c>
-      <c r="N5">
-        <v>10000000</v>
-      </c>
-      <c r="O5">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>3.98312</v>
-      </c>
-      <c r="E6">
-        <v>0.36224000000000001</v>
-      </c>
-      <c r="F6">
-        <v>1.9369999999999998E-2</v>
-      </c>
-      <c r="G6">
-        <v>0.13936999999999999</v>
-      </c>
-      <c r="H6">
-        <v>0.35943999999999998</v>
-      </c>
-      <c r="I6">
-        <v>1.2018599999999999</v>
-      </c>
-      <c r="J6">
-        <v>2.3631799999999998</v>
-      </c>
-      <c r="K6">
-        <v>1.2859700000000001</v>
-      </c>
-      <c r="L6">
-        <v>0.10476000000000001</v>
-      </c>
-      <c r="M6">
-        <v>1.07961</v>
-      </c>
-      <c r="N6">
-        <v>5000000</v>
-      </c>
-      <c r="O6">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3.54481</v>
-      </c>
-      <c r="E7">
-        <v>0.98360999999999998</v>
-      </c>
-      <c r="F7">
-        <v>2.026E-2</v>
-      </c>
-      <c r="G7">
-        <v>0.85963999999999996</v>
-      </c>
-      <c r="H7">
-        <v>1.2060500000000001</v>
-      </c>
-      <c r="I7">
-        <v>1.5060899999999999</v>
-      </c>
-      <c r="J7">
-        <v>1.7031099999999999</v>
-      </c>
-      <c r="K7">
-        <v>1.58795</v>
-      </c>
-      <c r="L7">
-        <v>0.10135</v>
-      </c>
-      <c r="M7">
-        <v>0.8599</v>
-      </c>
-      <c r="N7">
-        <v>2500000</v>
-      </c>
-      <c r="O7">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>0.46331</v>
-      </c>
-      <c r="E8">
-        <v>0.99117999999999995</v>
-      </c>
-      <c r="F8">
-        <v>1.9890000000000001E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.91064000000000001</v>
-      </c>
-      <c r="H8">
-        <v>1.2281</v>
-      </c>
-      <c r="I8">
-        <v>1.3102400000000001</v>
-      </c>
-      <c r="J8">
-        <v>1.4166399999999999</v>
-      </c>
-      <c r="K8">
-        <v>0.80584</v>
-      </c>
-      <c r="L8">
-        <v>9.9669999999999995E-2</v>
-      </c>
-      <c r="M8">
-        <v>0.91886000000000001</v>
-      </c>
-      <c r="N8">
-        <v>1250000</v>
-      </c>
-      <c r="O8">
-        <v>625000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0.25069999999999998</v>
-      </c>
-      <c r="E9">
-        <v>0.98716999999999999</v>
-      </c>
-      <c r="F9">
-        <v>1.9439999999999999E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.92164999999999997</v>
-      </c>
-      <c r="H9">
-        <v>8.8340000000000002E-2</v>
-      </c>
-      <c r="I9">
-        <v>0.19806000000000001</v>
-      </c>
-      <c r="J9">
-        <v>0.36759999999999998</v>
-      </c>
-      <c r="K9">
-        <v>0.19298999999999999</v>
-      </c>
-      <c r="L9">
-        <v>0.10917</v>
-      </c>
-      <c r="M9">
-        <v>0.46911000000000003</v>
-      </c>
-      <c r="N9">
-        <v>625000</v>
-      </c>
-      <c r="O9">
-        <v>312500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>7.6039999999999996E-2</v>
-      </c>
-      <c r="E10">
-        <v>8.0149999999999999E-2</v>
-      </c>
-      <c r="F10">
-        <v>1.899E-2</v>
-      </c>
-      <c r="G10">
-        <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="H10">
-        <v>4.5650000000000003E-2</v>
-      </c>
-      <c r="I10">
-        <v>0.10689</v>
-      </c>
-      <c r="J10">
-        <v>0.19449</v>
-      </c>
-      <c r="K10">
-        <v>0.11665</v>
-      </c>
-      <c r="L10">
-        <v>1.34E-2</v>
-      </c>
-      <c r="M10">
-        <v>9.493E-2</v>
-      </c>
-      <c r="N10">
-        <v>312500</v>
-      </c>
-      <c r="O10">
-        <v>156248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="E11">
-        <v>4.7219999999999998E-2</v>
-      </c>
-      <c r="F11">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="G11">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="H11">
-        <v>4.3060000000000001E-2</v>
-      </c>
-      <c r="I11">
-        <v>7.528E-2</v>
-      </c>
-      <c r="J11">
-        <v>0.11404</v>
-      </c>
-      <c r="K11">
-        <v>7.6219999999999996E-2</v>
-      </c>
-      <c r="L11">
-        <v>1.021E-2</v>
-      </c>
-      <c r="M11">
-        <v>5.5730000000000002E-2</v>
-      </c>
-      <c r="N11">
-        <v>156250</v>
-      </c>
-      <c r="O11">
-        <v>78124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>5.8099999999999999E-2</v>
-      </c>
-      <c r="E12">
-        <v>4.0079999999999998E-2</v>
-      </c>
-      <c r="F12">
-        <v>1.771E-2</v>
-      </c>
-      <c r="G12">
-        <v>5.6800000000000002E-3</v>
-      </c>
-      <c r="H12">
-        <v>4.2250000000000003E-2</v>
-      </c>
-      <c r="I12">
-        <v>6.0299999999999999E-2</v>
-      </c>
-      <c r="J12">
-        <v>7.077E-2</v>
-      </c>
-      <c r="K12">
-        <v>6.0600000000000001E-2</v>
-      </c>
-      <c r="L12">
-        <v>1.0070000000000001E-2</v>
-      </c>
-      <c r="M12">
-        <v>3.8890000000000001E-2</v>
-      </c>
-      <c r="N12">
-        <v>78125</v>
-      </c>
-      <c r="O12">
-        <v>39060</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>4.6280000000000002E-2</v>
-      </c>
-      <c r="E13">
-        <v>3.4169999999999999E-2</v>
-      </c>
-      <c r="F13">
-        <v>1.592E-2</v>
-      </c>
-      <c r="G13">
-        <v>4.9100000000000003E-3</v>
-      </c>
-      <c r="H13">
-        <v>4.4589999999999998E-2</v>
-      </c>
-      <c r="I13">
-        <v>5.4539999999999998E-2</v>
-      </c>
-      <c r="J13">
-        <v>5.5469999999999998E-2</v>
-      </c>
-      <c r="K13">
-        <v>5.9569999999999998E-2</v>
-      </c>
-      <c r="L13">
-        <v>1.081E-2</v>
-      </c>
-      <c r="M13">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="N13">
-        <v>39062</v>
-      </c>
-      <c r="O13">
-        <v>19528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>4.19E-2</v>
-      </c>
-      <c r="E14">
-        <v>3.2059999999999998E-2</v>
-      </c>
-      <c r="F14">
-        <v>1.5010000000000001E-2</v>
-      </c>
-      <c r="G14">
-        <v>5.0299999999999997E-3</v>
-      </c>
-      <c r="H14">
-        <v>4.3790000000000003E-2</v>
-      </c>
-      <c r="I14">
-        <v>5.2780000000000001E-2</v>
-      </c>
-      <c r="J14">
-        <v>5.0659999999999997E-2</v>
-      </c>
-      <c r="K14">
-        <v>5.8990000000000001E-2</v>
-      </c>
-      <c r="L14">
-        <v>1.128E-2</v>
-      </c>
-      <c r="M14">
-        <v>3.5779999999999999E-2</v>
-      </c>
-      <c r="N14">
-        <v>19531</v>
-      </c>
-      <c r="O14">
-        <v>9764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>4.0550000000000003E-2</v>
-      </c>
-      <c r="E15">
-        <v>3.124E-2</v>
-      </c>
-      <c r="F15">
-        <v>1.5089999999999999E-2</v>
-      </c>
-      <c r="G15">
-        <v>4.9100000000000003E-3</v>
-      </c>
-      <c r="H15">
-        <v>4.4150000000000002E-2</v>
-      </c>
-      <c r="I15">
-        <v>5.1290000000000002E-2</v>
-      </c>
-      <c r="J15">
-        <v>4.9709999999999997E-2</v>
-      </c>
-      <c r="K15">
-        <v>5.8590000000000003E-2</v>
-      </c>
-      <c r="L15">
-        <v>1.0919999999999999E-2</v>
-      </c>
-      <c r="M15">
-        <v>3.4979999999999997E-2</v>
-      </c>
-      <c r="N15">
-        <v>9765</v>
-      </c>
-      <c r="O15">
-        <v>4880</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>4.0050000000000002E-2</v>
-      </c>
-      <c r="E16">
-        <v>3.1390000000000001E-2</v>
-      </c>
-      <c r="F16">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="G16">
-        <v>4.9199999999999999E-3</v>
-      </c>
-      <c r="H16">
-        <v>4.3749999999999997E-2</v>
-      </c>
-      <c r="I16">
-        <v>5.0860000000000002E-2</v>
-      </c>
-      <c r="J16">
-        <v>4.965E-2</v>
-      </c>
-      <c r="K16">
-        <v>5.8270000000000002E-2</v>
-      </c>
-      <c r="L16">
-        <v>1.091E-2</v>
-      </c>
-      <c r="M16">
-        <v>3.492E-2</v>
-      </c>
-      <c r="N16">
-        <v>4882</v>
-      </c>
-      <c r="O16">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>4.0129999999999999E-2</v>
-      </c>
-      <c r="E17">
-        <v>3.1019999999999999E-2</v>
-      </c>
-      <c r="F17">
-        <v>1.4959999999999999E-2</v>
-      </c>
-      <c r="G17">
-        <v>5.1700000000000001E-3</v>
-      </c>
-      <c r="H17">
-        <v>4.385E-2</v>
-      </c>
-      <c r="I17">
-        <v>5.0979999999999998E-2</v>
-      </c>
-      <c r="J17">
-        <v>4.9579999999999999E-2</v>
-      </c>
-      <c r="K17">
-        <v>5.7820000000000003E-2</v>
-      </c>
-      <c r="L17">
-        <v>1.081E-2</v>
-      </c>
-      <c r="M17">
-        <v>3.499E-2</v>
-      </c>
-      <c r="N17">
-        <v>2441</v>
-      </c>
-      <c r="O17">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>4.0120000000000003E-2</v>
-      </c>
-      <c r="E18">
-        <v>3.0630000000000001E-2</v>
-      </c>
-      <c r="F18">
-        <v>1.506E-2</v>
-      </c>
-      <c r="G18">
-        <v>5.0499999999999998E-3</v>
-      </c>
-      <c r="H18">
-        <v>4.4260000000000001E-2</v>
-      </c>
-      <c r="I18">
-        <v>4.9930000000000002E-2</v>
-      </c>
-      <c r="J18">
-        <v>4.9410000000000003E-2</v>
-      </c>
-      <c r="K18">
-        <v>5.8380000000000001E-2</v>
-      </c>
-      <c r="L18">
-        <v>1.0840000000000001E-2</v>
-      </c>
-      <c r="M18">
-        <v>3.5060000000000001E-2</v>
-      </c>
-      <c r="N18">
-        <v>1220</v>
-      </c>
-      <c r="O18">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>4.018E-2</v>
-      </c>
-      <c r="E19">
-        <v>3.0849999999999999E-2</v>
-      </c>
-      <c r="F19">
-        <v>1.4970000000000001E-2</v>
-      </c>
-      <c r="G19">
-        <v>5.1599999999999997E-3</v>
-      </c>
-      <c r="H19">
-        <v>4.4269999999999997E-2</v>
-      </c>
-      <c r="I19">
-        <v>4.9930000000000002E-2</v>
-      </c>
-      <c r="J19">
-        <v>4.9639999999999997E-2</v>
-      </c>
-      <c r="K19">
-        <v>5.7110000000000001E-2</v>
-      </c>
-      <c r="L19">
-        <v>1.108E-2</v>
-      </c>
-      <c r="M19">
-        <v>3.4549999999999997E-2</v>
-      </c>
-      <c r="N19">
-        <v>610</v>
-      </c>
-      <c r="O19">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>3.9539999999999999E-2</v>
-      </c>
-      <c r="E20">
-        <v>3.031E-2</v>
-      </c>
-      <c r="F20">
-        <v>1.477E-2</v>
-      </c>
-      <c r="G20">
-        <v>5.0099999999999997E-3</v>
-      </c>
-      <c r="H20">
-        <v>4.367E-2</v>
-      </c>
-      <c r="I20">
-        <v>4.9590000000000002E-2</v>
-      </c>
-      <c r="J20">
-        <v>4.6609999999999999E-2</v>
-      </c>
-      <c r="K20">
-        <v>5.6649999999999999E-2</v>
-      </c>
-      <c r="L20">
-        <v>1.0880000000000001E-2</v>
-      </c>
-      <c r="M20">
-        <v>3.4669999999999999E-2</v>
-      </c>
-      <c r="N20">
-        <v>305</v>
-      </c>
-      <c r="O20">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="E21">
-        <v>3.04E-2</v>
-      </c>
-      <c r="F21">
-        <v>1.5350000000000001E-2</v>
-      </c>
-      <c r="G21">
-        <v>4.9899999999999996E-3</v>
-      </c>
-      <c r="H21">
-        <v>4.3540000000000002E-2</v>
-      </c>
-      <c r="I21">
-        <v>4.5960000000000001E-2</v>
-      </c>
-      <c r="J21">
-        <v>4.419E-2</v>
-      </c>
-      <c r="K21">
-        <v>5.5309999999999998E-2</v>
-      </c>
-      <c r="L21">
-        <v>1.108E-2</v>
-      </c>
-      <c r="M21">
-        <v>3.3919999999999999E-2</v>
-      </c>
-      <c r="N21">
-        <v>152</v>
-      </c>
-      <c r="O21">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>3.712E-2</v>
-      </c>
-      <c r="E22">
-        <v>3.0439999999999998E-2</v>
-      </c>
-      <c r="F22">
-        <v>1.555E-2</v>
-      </c>
-      <c r="G22">
-        <v>5.0299999999999997E-3</v>
-      </c>
-      <c r="H22">
-        <v>4.326E-2</v>
-      </c>
-      <c r="I22">
-        <v>4.478E-2</v>
-      </c>
-      <c r="J22">
-        <v>4.3319999999999997E-2</v>
-      </c>
-      <c r="K22">
-        <v>5.5230000000000001E-2</v>
-      </c>
-      <c r="L22">
-        <v>1.078E-2</v>
-      </c>
-      <c r="M22">
-        <v>3.3419999999999998E-2</v>
-      </c>
-      <c r="N22">
-        <v>76</v>
-      </c>
-      <c r="O22">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>3.7179999999999998E-2</v>
-      </c>
-      <c r="E23">
-        <v>3.0159999999999999E-2</v>
-      </c>
-      <c r="F23">
-        <v>1.5350000000000001E-2</v>
-      </c>
-      <c r="G23">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="H23">
-        <v>4.3659999999999997E-2</v>
-      </c>
-      <c r="I23">
-        <v>4.512E-2</v>
-      </c>
-      <c r="J23">
-        <v>4.2610000000000002E-2</v>
-      </c>
-      <c r="K23">
-        <v>5.5460000000000002E-2</v>
-      </c>
-      <c r="L23">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="M23">
-        <v>3.3750000000000002E-2</v>
-      </c>
-      <c r="N23">
-        <v>38</v>
-      </c>
-      <c r="O23">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>3.7589999999999998E-2</v>
-      </c>
-      <c r="E24">
-        <v>3.0120000000000001E-2</v>
-      </c>
-      <c r="F24">
-        <v>1.549E-2</v>
-      </c>
-      <c r="G24">
-        <v>4.7499999999999999E-3</v>
-      </c>
-      <c r="H24">
-        <v>4.4019999999999997E-2</v>
-      </c>
-      <c r="I24">
-        <v>4.5229999999999999E-2</v>
-      </c>
-      <c r="J24">
-        <v>4.2040000000000001E-2</v>
-      </c>
-      <c r="K24">
-        <v>5.5780000000000003E-2</v>
-      </c>
-      <c r="L24">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="M24">
-        <v>3.3550000000000003E-2</v>
-      </c>
-      <c r="N24">
-        <v>19</v>
-      </c>
-      <c r="O24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="E25">
-        <v>3.0120000000000001E-2</v>
-      </c>
-      <c r="F25">
-        <v>1.5650000000000001E-2</v>
-      </c>
-      <c r="G25">
-        <v>4.8599999999999997E-3</v>
-      </c>
-      <c r="H25">
-        <v>4.4970000000000003E-2</v>
-      </c>
-      <c r="I25">
-        <v>4.5809999999999997E-2</v>
-      </c>
-      <c r="J25">
-        <v>4.233E-2</v>
-      </c>
-      <c r="K25">
-        <v>5.6169999999999998E-2</v>
-      </c>
-      <c r="L25">
-        <v>1.074E-2</v>
-      </c>
-      <c r="M25">
-        <v>3.3550000000000003E-2</v>
-      </c>
-      <c r="N25">
-        <v>9</v>
-      </c>
-      <c r="O25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>3.7089999999999998E-2</v>
-      </c>
-      <c r="E26">
-        <v>3.0190000000000002E-2</v>
-      </c>
-      <c r="F26">
-        <v>1.5469999999999999E-2</v>
-      </c>
-      <c r="G26">
-        <v>4.9199999999999999E-3</v>
-      </c>
-      <c r="H26">
-        <v>4.4089999999999997E-2</v>
-      </c>
-      <c r="I26">
-        <v>4.5249999999999999E-2</v>
-      </c>
-      <c r="J26">
-        <v>4.2130000000000001E-2</v>
-      </c>
-      <c r="K26">
-        <v>5.1189999999999999E-2</v>
-      </c>
-      <c r="L26">
-        <v>1.0670000000000001E-2</v>
-      </c>
-      <c r="M26">
-        <v>3.3270000000000001E-2</v>
-      </c>
-      <c r="N26">
-        <v>4</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>3.8129999999999997E-2</v>
-      </c>
-      <c r="E27">
-        <v>3.04E-2</v>
-      </c>
-      <c r="F27">
-        <v>1.5520000000000001E-2</v>
-      </c>
-      <c r="G27">
-        <v>4.8599999999999997E-3</v>
-      </c>
-      <c r="H27">
-        <v>4.3839999999999997E-2</v>
-      </c>
-      <c r="I27">
-        <v>4.4179999999999997E-2</v>
-      </c>
-      <c r="J27">
-        <v>4.2430000000000002E-2</v>
-      </c>
-      <c r="K27">
-        <v>5.0930000000000003E-2</v>
-      </c>
-      <c r="L27">
-        <v>1.0829999999999999E-2</v>
-      </c>
-      <c r="M27">
-        <v>3.3369999999999997E-2</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>3.7150000000000002E-2</v>
-      </c>
-      <c r="E28">
-        <v>3.023E-2</v>
-      </c>
-      <c r="F28">
-        <v>1.5520000000000001E-2</v>
-      </c>
-      <c r="G28">
-        <v>4.7499999999999999E-3</v>
-      </c>
-      <c r="H28">
-        <v>4.394E-2</v>
-      </c>
-      <c r="I28">
-        <v>4.3929999999999997E-2</v>
-      </c>
-      <c r="J28">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="K28">
-        <v>5.0990000000000001E-2</v>
-      </c>
-      <c r="L28">
-        <v>1.094E-2</v>
-      </c>
-      <c r="M28">
-        <v>3.354E-2</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
+    <row r="1" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
